--- a/biology/Médecine/Otto_F._Kernberg/Otto_F._Kernberg.xlsx
+++ b/biology/Médecine/Otto_F._Kernberg/Otto_F._Kernberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Friedmann Kernberg, né à Vienne le 10 septembre 1928 est un psychiatre et psychanalyste américain d'origine autrichienne, reconnu pour son travail théorique et clinique sur les cas-limites et les pathologies du narcissisme.
-Durant les années 1970, il est avec Heinz Kohut l'un des deux grands psychanalystes américains ayant revisité ce concept[1].
+Durant les années 1970, il est avec Heinz Kohut l'un des deux grands psychanalystes américains ayant revisité ce concept.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1939, après l'Anschluss, sa famille émigre au Chili[2]. Il étudie la psychiatrie à Santiago du Chili et se forme à la psychanalyse à la Société psychanalytique chilienne. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1939, après l'Anschluss, sa famille émigre au Chili. Il étudie la psychiatrie à Santiago du Chili et se forme à la psychanalyse à la Société psychanalytique chilienne. 
 En 1959, il poursuit ses études aux États-Unis et devient professeur au Weill Medical College, rattaché à l'université Cornell.
 Assumant un rôle important à la Menninger Clinic de Topeka (Kansas), il s'est ensuite installé à New York pour devenir professeur de psychiatrie à la Columbia University.
-Dans la sphère psychanalytique, il est connu en tant que théoricien, critique et pédagogue[3].
+Dans la sphère psychanalytique, il est connu en tant que théoricien, critique et pédagogue.
 Il est président de l'Association psychanalytique internationale de 1999 à 2001.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>en anglais
 Borderline conditions and pathological narcissism, New York, Jason Aronson, 1975
@@ -559,9 +575,43 @@
 La personnalité narcissique, Paris, Dunod, 1975. Rééd., Paris, Dunod, 2016, coll. « Psychismes »,  (ISBN 978-2-10-072699-8).
 Les troubles graves de la personnalité : stratégies psychothérapiques, Paris, PUF, 2004,coll. « Le fil rouge »,   (ISBN 2-13-054703-6).
 La thérapie psychodynamique des personnalités limites, Paris, PUF, 1995, coll. « Psychiatrie ouverte »,  (ISBN 2-13-046726-1).
-L'avenir d'une désillusion (en collaboration avec André Green, dir.), Paris, PUF, 2000, coll. « Bibliothèque de psychanalyse »,  (ISBN 2-13-050831-6)
-Articles
-« La formation psychanalytique : quelques préoccupations », Revue française de psychanalyse, 2002/1, vol. 66 p. 227-251, [lire en ligne]</t>
+L'avenir d'une désillusion (en collaboration avec André Green, dir.), Paris, PUF, 2000, coll. « Bibliothèque de psychanalyse »,  (ISBN 2-13-050831-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Otto_F._Kernberg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Otto_F._Kernberg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« La formation psychanalytique : quelques préoccupations », Revue française de psychanalyse, 2002/1, vol. 66 p. 227-251, [lire en ligne]</t>
         </is>
       </c>
     </row>
